--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>5.515135932605308</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>3.054599347420139</v>
+        <v>2.741420124134053</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-2.764179109379705</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>-2.824221650093883</v>
+        <v>-0.2596132895792413</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>0.6832201941375571</v>
+        <v>-1.796159642965267</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>-3.872359107260159</v>
+        <v>3.38265053313096</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>4.063186607895775</v>
+        <v>1.421687849828523</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>6.198184853554634</v>
+        <v>3.372216600811506</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>4.530477057343663</v>
+        <v>5.813045170083808</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>6.404323597907235</v>
+        <v>2.371160938652705</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>6.977693666529272</v>
+        <v>5.794553957309168</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>6.833902841285977</v>
+        <v>4.597183386292891</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>4.379018979318605</v>
+        <v>6.213583554874536</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>4.580469755461802</v>
+        <v>4.453225076234824</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>4.166536506645224</v>
+        <v>2.113053977048707</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>2.313339498391165</v>
+        <v>3.80132608443593</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>5.800035788110924</v>
+        <v>4.443665867214519</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>2.669880057548091</v>
+        <v>5.262295419893648</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>5.973609545413994</v>
+        <v>3.911207409579687</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>6.575740619085968</v>
+        <v>4.93942156312468</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>5.50293301232252</v>
+        <v>4.78031692483154</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>5.107401516566701</v>
+        <v>4.481753591536197</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>5.637047132432382</v>
+        <v>5.304093839766777</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>4.829481320500406</v>
+        <v>5.386945580119185</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>5.448849700771508</v>
+        <v>5.291601650505706</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.889825623401545</v>
+        <v>4.773858406282372</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>5.100281927437122</v>
+        <v>4.884223728030879</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>4.890921874850185</v>
+        <v>4.848884192354119</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>5.261684900217256</v>
+        <v>5.448823958443616</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>5.161358932333737</v>
+        <v>6.111775080355519</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>5.938036641950228</v>
+        <v>5.5540247491221</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>5.910776580333765</v>
+        <v>6.072005530313129</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>4.737510621186813</v>
+        <v>5.47980442665561</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.903240711112856</v>
+        <v>5.969015988310433</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>4.751894620017949</v>
+        <v>5.321568540215016</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>4.808207293463118</v>
+        <v>5.03659417252571</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>5.902681694119694</v>
+        <v>3.94180168325462</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>3.844372712434674</v>
+        <v>5.077291536394846</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>4.754217134270533</v>
+        <v>4.927928448556984</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>4.502492156165561</v>
+        <v>5.802765867180804</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.937486382457855</v>
+        <v>3.961704997901161</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3.718398465425499</v>
+        <v>4.342221082693465</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>3.575675711572068</v>
+        <v>4.009670676786059</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>3.884502719230132</v>
+        <v>3.818894565497888</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>3.666264665660224</v>
+        <v>4.451460339319802</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.026619269503116</v>
+        <v>2.502519143054571</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>4.521126324859415</v>
+        <v>3.379658261193086</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-4.007669511185885</v>
+        <v>-3.840397826549158</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>4.894792862113562</v>
+        <v>-2.491095770678031</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>4.713777840658673</v>
+        <v>-0.236010050592228</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-3.840397826549158</v>
+        <v>-1.162988086281536</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>2.375052641466335</v>
+        <v>-0.8351862827690737</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>1.212304829517796</v>
+        <v>0.3986977119751156</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>9.298746984139195</v>
+        <v>1.500453746466346</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>1.488248808663228</v>
+        <v>0.4839811651348835</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>8.604279583650509</v>
+        <v>1.25489130894445</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>6.8272105562736</v>
+        <v>2.177145583294293</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>0.4839811651348835</v>
+        <v>0.9587999512773893</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>4.93373128372403</v>
+        <v>-1.150174078429844</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.236851357693292</v>
+        <v>1.97557360987699</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.947999343926734</v>
+        <v>0.05919149746531627</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.395586567457175</v>
+        <v>2.06342951900429</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.99549438235165</v>
+        <v>0.47378583592943</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1086,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.963784470256713</v>
+        <v>0.3896432785800652</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>2.06342951900429</v>
+        <v>-2.242084520390608</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.2251249147054546</v>
+        <v>0.4860776313184267</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-1.499586570365474</v>
+        <v>-2.311523918755531</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>4.436084942495122</v>
+        <v>-0.1671238976421296</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.158581765635204</v>
+        <v>-2.156362896191677</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>3.750193614401542</v>
+        <v>0.7251362782769055</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.091147464428778</v>
+        <v>-1.437335768580206</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-2.156362896191677</v>
+        <v>-1.379035600217182</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.4555597068876871</v>
+        <v>-1.053916016632561</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.6569152576540782</v>
+        <v>-0.8195740704359578</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>3.809034848488446</v>
+        <v>-0.4351858173977874</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.4507701807948239</v>
+        <v>-0.8205034771073372</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>3.710266040086396</v>
+        <v>-0.1639718104104904</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1222,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.76827631783818</v>
+        <v>0.07297157746815053</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.8205034771073372</v>
+        <v>0.2518138058242414</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>1.268511207459633</v>
+        <v>-1.185914719184011</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.468579753809073</v>
+        <v>0.4857399523052974</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.116859699208427</v>
+        <v>-0.3387208997876479</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5756371110930525</v>
+        <v>0.5750555200350504</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.5339625944420057</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.5750555200350504</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.5328865284840001</v>
+        <v>0.3466793681147884</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>7.226520411029047</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>5.515135932605308</v>
+        <v>8.987952903094421</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>6.109216616889168</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>2.741420124134053</v>
+        <v>8.045645122021906</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>4.268860212333636</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-2.764179109379705</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-0.2596132895792413</v>
+        <v>6.77211531652997</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-3.872359107260159</v>
+        <v>-5.232639093663815</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-1.796159642965267</v>
+        <v>-0.9943400519801915</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-7.266312015249776</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>3.38265053313096</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>1.421687849828523</v>
+        <v>-1.420242831007679</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>4.530477057343663</v>
+        <v>2.12454018480297</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>3.372216600811506</v>
+        <v>1.203634802640963</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>6.958243460951929</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>5.813045170083808</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>2.371160938652705</v>
+        <v>8.31992099499319</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>6.833902841285977</v>
+        <v>8.081020954067775</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>5.794553957309168</v>
+        <v>2.257871268432821</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>9.469137444079934</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>4.597183386292891</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>6.213583554874536</v>
+        <v>8.571528775834981</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>4.166536506645224</v>
+        <v>4.489210662380949</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>4.453225076234824</v>
+        <v>7.472658273721078</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>3.358206407534947</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>2.113053977048707</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>3.80132608443593</v>
+        <v>5.745831525574441</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>2.669880057548091</v>
+        <v>-0.8752093743685352</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>4.443665867214519</v>
+        <v>1.998870338019265</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.3081076735359067</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>5.262295419893648</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>3.911207409579687</v>
+        <v>2.847379875994704</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>5.50293301232252</v>
+        <v>4.891728508251214</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>4.93942156312468</v>
+        <v>2.926340920335191</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>3.901355411819707</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>4.78031692483154</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>4.481753591536197</v>
+        <v>3.690459963535009</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>4.829481320500406</v>
+        <v>4.818339085077583</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>5.304093839766777</v>
+        <v>4.241902819910548</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>5.331683351557981</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>5.386945580119185</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>5.291601650505706</v>
+        <v>4.636575318346536</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>5.100281927437122</v>
+        <v>4.067959312311897</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.773858406282372</v>
+        <v>4.36243732366437</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>3.254758369308375</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>4.884223728030879</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>4.848884192354119</v>
+        <v>2.76788332063731</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>5.161358932333737</v>
+        <v>4.613634856640747</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>5.448823958443616</v>
+        <v>4.246555741688218</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>5.246209615995667</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>6.111775080355519</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>5.5540247491221</v>
+        <v>4.659862065074982</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>6.072005530313129</v>
+        <v>6.155351106582874</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>5.47980442665561</v>
+        <v>5.081201994458495</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.969015988310433</v>
+        <v>3.898744563937395</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>5.321568540215016</v>
+        <v>3.529300656691237</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.902681694119694</v>
+        <v>5.021833280292598</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>5.03659417252571</v>
+        <v>4.83330568333058</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>4.86255966374296</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>3.94180168325462</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>5.077291536394846</v>
+        <v>4.636196713604357</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>4.927928448556984</v>
+        <v>4.237941638782527</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>5.802765867180804</v>
+        <v>4.932073907517265</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.961704997901161</v>
+        <v>3.841510956591465</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>4.342221082693465</v>
+        <v>4.83848589746565</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.884502719230132</v>
+        <v>3.042742667481324</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>4.009670676786059</v>
+        <v>3.228901920070748</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>2.764740011159428</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>3.818894565497888</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>4.451460339319802</v>
+        <v>2.471557257221946</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.502519143054571</v>
+        <v>2.059284312217757</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>3.379658261193086</v>
+        <v>2.845541644111571</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-3.840397826549158</v>
+        <v>-0.8225206269755425</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-2.491095770678031</v>
+        <v>1.159653508089242</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-3.840397826549158</v>
+        <v>-7.578477024949737</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.236010050592228</v>
+        <v>-5.048497756254311</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-7.260793671746435</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-1.162988086281536</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-0.8351862827690737</v>
+        <v>-1.387795042833839</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>0.3986977119751156</v>
+        <v>-0.4318290737559183</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.500453746466346</v>
+        <v>-1.967992356539539</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.4839811651348835</v>
+        <v>4.409066926520455</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.25489130894445</v>
+        <v>3.034999751677669</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.4839811651348835</v>
+        <v>4.379227219808146</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>2.177145583294293</v>
+        <v>2.570052815033752</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>4.097586525396268</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>0.9587999512773893</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-1.150174078429844</v>
+        <v>2.450242954096926</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.97557360987699</v>
+        <v>6.557154773664364</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.05919149746531627</v>
+        <v>1.465110550383386</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.06342951900429</v>
+        <v>8.064077385547574</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.47378583592943</v>
+        <v>3.690055931494096</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.06342951900429</v>
+        <v>7.397318165265498</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.3896432785800652</v>
+        <v>3.192017772210276</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>7.824284864703746</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-2.242084520390608</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>0.4860776313184267</v>
+        <v>4.834990656989402</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-2.311523918755531</v>
+        <v>1.287151040638124</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.1671238976421296</v>
+        <v>5.402455143891816</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.156362896191677</v>
+        <v>0.3551698673347259</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.7251362782769055</v>
+        <v>4.038118345571751</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-2.156362896191677</v>
+        <v>-0.3046246622258053</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-1.437335768580206</v>
+        <v>2.185848087053199</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-1.24502235313334</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-1.379035600217182</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-1.053916016632561</v>
+        <v>-2.488220481262082</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.8195740704359578</v>
+        <v>-3.197915208378399</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.4351858173977874</v>
+        <v>0.5664860188349996</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.8205034771073372</v>
+        <v>-2.267078452724969</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.1639718104104904</v>
+        <v>0.5378929214800987</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.8205034771073372</v>
+        <v>-2.567041707495976</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.07297157746815053</v>
+        <v>-0.3140572462435154</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-1.735114423676209</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.2518138058242414</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-1.185914719184011</v>
+        <v>1.056286187957367</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.4857399523052974</v>
+        <v>1.602010908728335</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.3387208997876479</v>
+        <v>-1.246071640539481</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5750555200350504</v>
+        <v>1.326993065386817</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.3466793681147884</v>
+        <v>-0.2087957186147071</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.64031107104763</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>1.890175284700679</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-7.578477024949737</v>
+        <v>-9.509392583043452</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-5.048497756254311</v>
+        <v>-13.27335016738094</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-1.387795042833839</v>
+        <v>-3.928463662434578</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.4318290737559183</v>
+        <v>0.2776641654053114</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-1.967992356539539</v>
+        <v>-1.005130103122109</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>4.409066926520455</v>
+        <v>2.848657652839015</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>3.034999751677669</v>
+        <v>0.8699781697852682</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>4.379227219808146</v>
+        <v>4.308268478799282</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>2.570052815033752</v>
+        <v>2.613948320685866</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>2.450242954096926</v>
+        <v>1.615192986662839</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>6.557154773664364</v>
+        <v>8.215174201986342</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.465110550383386</v>
+        <v>2.364846754700189</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>8.064077385547574</v>
+        <v>7.397941265640773</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.690055931494096</v>
+        <v>2.551560717335288</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>7.397318165265498</v>
+        <v>7.536168948934541</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.192017772210276</v>
+        <v>3.242110390729325</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>4.834990656989402</v>
+        <v>5.766948420758222</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>1.287151040638124</v>
+        <v>5.214149886888819</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>5.402455143891816</v>
+        <v>10.69860835370518</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.3551698673347259</v>
+        <v>1.134134753233695</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>4.038118345571751</v>
+        <v>5.807910951802375</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.3046246622258053</v>
+        <v>-0.1750848605784672</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.185848087053199</v>
+        <v>3.547807771059497</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-2.488220481262082</v>
+        <v>-0.0390586059409781</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-3.197915208378399</v>
+        <v>-3.06764679961371</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.5664860188349996</v>
+        <v>0.4897355149953597</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-2.267078452724969</v>
+        <v>-2.44753364817466</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.5378929214800987</v>
+        <v>1.338948536686968</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.567041707495976</v>
+        <v>-2.520879465820713</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.3140572462435154</v>
+        <v>-0.01136840354138968</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.056286187957367</v>
+        <v>1.087576621789932</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>1.602010908728335</v>
+        <v>1.760561567332619</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-1.246071640539481</v>
+        <v>-0.3110100908356617</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>1.326993065386817</v>
+        <v>1.038949519463639</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.2087957186147071</v>
+        <v>-1.22086907471215</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.64031107104763</v>
+        <v>2.591610259448651</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>1.890175284700679</v>
+        <v>1.402134409956268</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>7.226520411029047</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>8.987952903094421</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>6.109216616889168</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>8.045645122021906</v>
+        <v>8.045645122021927</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>4.268860212333636</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>6.77211531652997</v>
+        <v>6.772115316529947</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +462,7 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-5.232639093663815</v>
+        <v>-5.232639093663827</v>
       </c>
       <c r="D5">
         <v>2010</v>
@@ -491,7 +479,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-7.266312015249776</v>
+        <v>-7.266312015249799</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -508,7 +496,7 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>2.12454018480297</v>
+        <v>2.124540184802992</v>
       </c>
       <c r="D7">
         <v>2011</v>
@@ -542,7 +530,7 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>8.081020954067775</v>
+        <v>8.081020954067753</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -559,7 +547,7 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>9.469137444079934</v>
+        <v>9.469137444079955</v>
       </c>
       <c r="D10">
         <v>2012</v>
@@ -576,7 +564,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>4.489210662380949</v>
+        <v>4.489210662380971</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -593,13 +581,13 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>3.358206407534947</v>
+        <v>3.358206407534969</v>
       </c>
       <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>5.745831525574441</v>
+        <v>5.745831525574463</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,7 +598,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.8752093743685352</v>
+        <v>-0.8752093743685241</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -661,13 +649,13 @@
         <v>2014</v>
       </c>
       <c r="C16">
-        <v>3.901355411819707</v>
+        <v>3.901355411819685</v>
       </c>
       <c r="D16">
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>3.690459963535009</v>
+        <v>3.690459963535031</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,7 +666,7 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>4.818339085077583</v>
+        <v>4.818339085077561</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -746,7 +734,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>4.613634856640747</v>
+        <v>4.613634856640769</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -763,7 +751,7 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>5.246209615995667</v>
+        <v>5.246209615995689</v>
       </c>
       <c r="D22">
         <v>2018</v>
@@ -780,7 +768,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>6.155351106582874</v>
+        <v>6.155351106582851</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -831,13 +819,13 @@
         <v>2018</v>
       </c>
       <c r="C26">
-        <v>4.86255966374296</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="D26">
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>4.636196713604357</v>
+        <v>4.636196713604379</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -871,7 +859,7 @@
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>4.83848589746565</v>
+        <v>4.838485897465628</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -899,7 +887,7 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>2.764740011159428</v>
+        <v>2.76474001115945</v>
       </c>
       <c r="D30">
         <v>2020</v>
@@ -922,7 +910,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.845541644111571</v>
+        <v>2.845541644111549</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -950,7 +938,7 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-9.509392583043452</v>
+        <v>-9.509392583043464</v>
       </c>
       <c r="D33">
         <v>2021</v>
@@ -967,7 +955,7 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-7.260793671746435</v>
+        <v>-7.260793671746447</v>
       </c>
       <c r="D34">
         <v>2021</v>
@@ -990,7 +978,7 @@
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-1.005130103122109</v>
+        <v>-1.005130103122098</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1007,7 +995,7 @@
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.8699781697852682</v>
+        <v>0.869978169785246</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1035,7 +1023,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>4.097586525396268</v>
+        <v>4.097586525396246</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -1052,13 +1040,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>8.215174201986342</v>
+        <v>8.215174201986319</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>2.364846754700189</v>
+        <v>2.364846754700167</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1075,7 +1063,7 @@
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.551560717335288</v>
+        <v>2.551560717335266</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1092,7 +1080,7 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.242110390729325</v>
+        <v>3.242110390729347</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1103,7 +1091,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>7.824284864703746</v>
+        <v>7.824284864703768</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1171,7 +1159,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-1.24502235313334</v>
+        <v>-1.245022353133318</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1188,13 +1176,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-3.06764679961371</v>
+        <v>-3.067646799613699</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.4897355149953597</v>
+        <v>0.4897355149953819</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,7 +1193,7 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-2.44753364817466</v>
+        <v>-2.447533648174649</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.520879465820713</v>
+        <v>-2.520879465820702</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.01136840354138968</v>
+        <v>-0.01136840354140078</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1262,7 +1250,7 @@
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.3110100908356617</v>
+        <v>-0.3110100908356728</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1261,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>1.038949519463639</v>
+        <v>1.038949519463617</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-1.22086907471215</v>
+        <v>-1.220869074712128</v>
       </c>
     </row>
     <row r="53" spans="1:5">

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>1.402134409956268</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.560577522109297</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>1.676143333484292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
